--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H2">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I2">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J2">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N2">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q2">
-        <v>2.125230995391222</v>
+        <v>0.7623988999986667</v>
       </c>
       <c r="R2">
-        <v>19.127078958521</v>
+        <v>6.861590099988</v>
       </c>
       <c r="S2">
-        <v>0.01511253056436796</v>
+        <v>0.008092668313638201</v>
       </c>
       <c r="T2">
-        <v>0.01511253056436796</v>
+        <v>0.0080926683136382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H3">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I3">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J3">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q3">
-        <v>5.986652872049</v>
+        <v>2.653409329818</v>
       </c>
       <c r="R3">
-        <v>53.879875848441</v>
+        <v>23.880683968362</v>
       </c>
       <c r="S3">
-        <v>0.0425711250698407</v>
+        <v>0.02816525785460558</v>
       </c>
       <c r="T3">
-        <v>0.0425711250698407</v>
+        <v>0.02816525785460558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H4">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I4">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J4">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N4">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q4">
-        <v>4.145848106193555</v>
+        <v>1.316919006476667</v>
       </c>
       <c r="R4">
-        <v>37.312632955742</v>
+        <v>11.85227105829</v>
       </c>
       <c r="S4">
-        <v>0.02948115115766203</v>
+        <v>0.01397875667889901</v>
       </c>
       <c r="T4">
-        <v>0.02948115115766203</v>
+        <v>0.01397875667889901</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I5">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J5">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N5">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O5">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P5">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q5">
-        <v>12.37497753127867</v>
+        <v>10.01613948491467</v>
       </c>
       <c r="R5">
-        <v>111.374797781508</v>
+        <v>90.145255364232</v>
       </c>
       <c r="S5">
-        <v>0.08799854066705284</v>
+        <v>0.1063187455211322</v>
       </c>
       <c r="T5">
-        <v>0.08799854066705286</v>
+        <v>0.1063187455211322</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I6">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J6">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q6">
         <v>34.85959641085201</v>
@@ -818,10 +818,10 @@
         <v>313.736367697668</v>
       </c>
       <c r="S6">
-        <v>0.2478868025936888</v>
+        <v>0.3700256536319915</v>
       </c>
       <c r="T6">
-        <v>0.2478868025936888</v>
+        <v>0.3700256536319914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I7">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J7">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N7">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q7">
-        <v>24.14080035229067</v>
+        <v>17.30123752700667</v>
       </c>
       <c r="R7">
-        <v>217.267203170616</v>
+        <v>155.71113774306</v>
       </c>
       <c r="S7">
-        <v>0.1716653784757823</v>
+        <v>0.1836481882670343</v>
       </c>
       <c r="T7">
-        <v>0.1716653784757823</v>
+        <v>0.1836481882670342</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H8">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I8">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J8">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N8">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O8">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P8">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q8">
-        <v>9.881546835511777</v>
+        <v>4.397600977600889</v>
       </c>
       <c r="R8">
-        <v>88.933921519606</v>
+        <v>39.578408798408</v>
       </c>
       <c r="S8">
-        <v>0.07026773978864118</v>
+        <v>0.04667940377080466</v>
       </c>
       <c r="T8">
-        <v>0.07026773978864118</v>
+        <v>0.04667940377080465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H9">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I9">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J9">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>42.742233</v>
       </c>
       <c r="O9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P9">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q9">
-        <v>27.835746265414</v>
+        <v>15.305157789188</v>
       </c>
       <c r="R9">
-        <v>250.521716388726</v>
+        <v>137.746420102692</v>
       </c>
       <c r="S9">
-        <v>0.1979401613896667</v>
+        <v>0.1624603150345721</v>
       </c>
       <c r="T9">
-        <v>0.1979401613896667</v>
+        <v>0.1624603150345721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H10">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I10">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J10">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N10">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P10">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q10">
-        <v>19.27667736971244</v>
+        <v>7.596134137015556</v>
       </c>
       <c r="R10">
-        <v>173.490096327412</v>
+        <v>68.36520723314</v>
       </c>
       <c r="S10">
-        <v>0.1370765702932975</v>
+        <v>0.08063101092732261</v>
       </c>
       <c r="T10">
-        <v>0.1370765702932975</v>
+        <v>0.08063101092732261</v>
       </c>
     </row>
   </sheetData>
